--- a/Python/output/case-study/FC_SA_summary-KPI-2.xlsx
+++ b/Python/output/case-study/FC_SA_summary-KPI-2.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DEA18-8A0E-B847-BDB3-71386502077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="2480" windowWidth="28040" windowHeight="17440" xr2:uid="{EF96FA1E-94E1-B24B-B505-91F1EC6AB9B5}"/>
+    <workbookView xWindow="5480" yWindow="9860" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -539,10 +546,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,62 +924,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11199C6-00B6-F842-83D7-813F9E786089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:N11"/>
+      <selection activeCell="A23" sqref="A23:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1107,22 +1114,22 @@
         <v>8500</v>
       </c>
       <c r="F3">
-        <v>8392.1962210000002</v>
+        <v>8500</v>
       </c>
       <c r="G3">
-        <v>7314.2665189999998</v>
+        <v>8500</v>
       </c>
       <c r="H3">
-        <v>6891.7144029999999</v>
+        <v>8345.59537121619</v>
       </c>
       <c r="I3">
-        <v>5868.7953360000001</v>
+        <v>7692.3299047097598</v>
       </c>
       <c r="J3">
-        <v>4987.8792110000004</v>
+        <v>6022.8874896212901</v>
       </c>
       <c r="K3">
-        <v>3358.1302690000002</v>
+        <v>4787.8237946785603</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1146,19 +1153,19 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.84399999999999997</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.75</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="V3">
-        <v>0.627</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="W3">
-        <v>0.46800000000000003</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1179,22 +1186,22 @@
         <v>8500</v>
       </c>
       <c r="AD3">
-        <v>8392.1962210000002</v>
+        <v>8500</v>
       </c>
       <c r="AE3">
-        <v>7699.2279140000001</v>
+        <v>8500</v>
       </c>
       <c r="AF3">
-        <v>8165.5383920000004</v>
+        <v>8345.59537121619</v>
       </c>
       <c r="AG3">
-        <v>7825.0604489999996</v>
+        <v>8114.2720513816103</v>
       </c>
       <c r="AH3">
-        <v>7955.1502559999999</v>
+        <v>7282.8143768092996</v>
       </c>
       <c r="AI3">
-        <v>7175.4920279999997</v>
+        <v>7900.6993311523502</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1220,25 +1227,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4379.09952417766</v>
       </c>
       <c r="F4">
-        <v>5569.4220610000002</v>
+        <v>16999.789716754702</v>
       </c>
       <c r="G4">
-        <v>16202.97424</v>
+        <v>16991.8582220389</v>
       </c>
       <c r="H4">
-        <v>14065.05852</v>
+        <v>16073.4592501478</v>
       </c>
       <c r="I4">
-        <v>11766.69658</v>
+        <v>13326.340905254499</v>
       </c>
       <c r="J4">
-        <v>9664.4036739999992</v>
+        <v>9954.8559547574205</v>
       </c>
       <c r="K4">
-        <v>6658.3498179999997</v>
+        <v>7291.3161683007502</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1256,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1265,16 +1272,16 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0.90200000000000002</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.79800000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="V4">
-        <v>0.7</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="W4">
-        <v>0.53700000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1292,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>4379.09952417766</v>
       </c>
       <c r="AD4">
-        <v>5569.4220610000002</v>
+        <v>16999.789716754702</v>
       </c>
       <c r="AE4">
-        <v>16202.97424</v>
+        <v>16991.8582220389</v>
       </c>
       <c r="AF4">
-        <v>15593.191269999999</v>
+        <v>16073.4592501478</v>
       </c>
       <c r="AG4">
-        <v>14745.23381</v>
+        <v>15041.0168230864</v>
       </c>
       <c r="AH4">
-        <v>13806.29096</v>
+        <v>13903.430104409799</v>
       </c>
       <c r="AI4">
-        <v>12399.16167</v>
+        <v>12904.9843686738</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1342,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>144.15577124805901</v>
       </c>
       <c r="H5">
-        <v>236.886439</v>
+        <v>6100.4333012787602</v>
       </c>
       <c r="I5">
-        <v>19327.696400000001</v>
+        <v>30460.2564201649</v>
       </c>
       <c r="J5">
-        <v>22443.6885</v>
+        <v>25346.824533468</v>
       </c>
       <c r="K5">
-        <v>16880.184000000001</v>
+        <v>17656.829102971999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1378,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="T5">
-        <v>0.01</v>
+        <v>0.997</v>
       </c>
       <c r="U5">
-        <v>0.89200000000000002</v>
+        <v>0.998</v>
       </c>
       <c r="V5">
-        <v>0.83799999999999997</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="W5">
-        <v>0.746</v>
+        <v>0.78</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1414,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>34000</v>
+        <v>7207.7885624029896</v>
       </c>
       <c r="AF5">
-        <v>23688.643899999999</v>
+        <v>6118.7896702896296</v>
       </c>
       <c r="AG5">
-        <v>21667.821100000001</v>
+        <v>30521.299018201302</v>
       </c>
       <c r="AH5">
-        <v>26782.444599999999</v>
+        <v>27196.163662519299</v>
       </c>
       <c r="AI5">
-        <v>22627.592499999999</v>
+        <v>22636.960388425599</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1464,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.928386519999997</v>
+        <v>1333.3172932366001</v>
       </c>
       <c r="J6">
-        <v>18818.659520000001</v>
+        <v>35555.210237666099</v>
       </c>
       <c r="K6">
-        <v>39177.666709999998</v>
+        <v>41860.369985758101</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1500,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>7.0000000000000001E-3</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="V6">
-        <v>0.82899999999999996</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="W6">
-        <v>0.99299999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1536,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>8275.4837879999995</v>
+        <v>27210.557004828599</v>
       </c>
       <c r="AH6">
-        <v>22700.433679999998</v>
+        <v>38858.153265208799</v>
       </c>
       <c r="AI6">
-        <v>39453.843610000004</v>
+        <v>43244.1838695849</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1583,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>159.0592552</v>
+        <v>2379.82725300744</v>
       </c>
       <c r="K7">
-        <v>58446.860439999997</v>
+        <v>76361.399349953601</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1619,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>3.9E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1655,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>4078.442442</v>
+        <v>29022.283573261499</v>
       </c>
       <c r="AI7">
-        <v>58446.860439999997</v>
+        <v>76361.399349953601</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1674,115 +1681,115 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>34</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>20509.4372</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>26549.361700000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>20557.834599999998</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>1E-3</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2">
         <v>0.95499999999999996</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="2">
         <v>0.93400000000000005</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="2">
         <v>0.82799999999999996</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
         <v>34000</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="2">
         <v>21475.8505</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="2">
         <v>28425.4408</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH8" s="2">
         <v>24828.3027</v>
       </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="3">
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1790,161 +1797,161 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>21694.735499999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>28212.775099999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>22928.455900000001</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>0.92300000000000004</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>0.86099999999999999</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
         <v>21694.735499999999</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="2">
         <v>30566.386900000001</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="2">
         <v>26630.0301</v>
       </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="3">
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2130,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1475.6647869999999</v>
+        <v>608.65698921143201</v>
       </c>
       <c r="F14">
-        <v>11760.53434</v>
+        <v>8848.2848299101406</v>
       </c>
       <c r="G14">
-        <v>15650.81525</v>
+        <v>14178</v>
       </c>
       <c r="H14">
-        <v>16428.66632</v>
+        <v>15938.951743424999</v>
       </c>
       <c r="I14">
         <v>17000</v>
@@ -2163,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.28100000000000003</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q14">
-        <v>0.42799999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="R14">
-        <v>0.28399999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S14">
-        <v>7.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2200,93 +2207,93 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1449.3918200000001</v>
-      </c>
-      <c r="I15" s="3">
-        <v>20737.388200000001</v>
-      </c>
-      <c r="J15" s="3">
-        <v>31440.008300000001</v>
-      </c>
-      <c r="K15" s="3">
-        <v>33977.784099999997</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1173.5257058177201</v>
+      </c>
+      <c r="I15">
+        <v>20172.7392803439</v>
+      </c>
+      <c r="J15">
+        <v>31323.036854511902</v>
+      </c>
+      <c r="K15">
+        <v>33829.851321612201</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15">
         <v>0.191</v>
       </c>
-      <c r="R15" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0.183</v>
-      </c>
-      <c r="V15" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="R15">
+        <v>0.06</v>
+      </c>
+      <c r="S15">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="T15">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="U15">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="V15">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="W15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2317,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20443.450140000001</v>
+        <v>18268.031222506699</v>
       </c>
       <c r="K16">
-        <v>65214.983769999999</v>
+        <v>63114.4646148596</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2338,25 +2345,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q16">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.06</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="S16">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="T16">
-        <v>0.113</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="U16">
-        <v>0.19900000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="V16">
-        <v>0.35199999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="W16">
-        <v>5.3999999999999999E-2</v>
+        <v>0.112</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2400,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>84278.594209999996</v>
+        <v>79121.309447531195</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2427,16 +2434,16 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="T17">
-        <v>0.157</v>
+        <v>0.113</v>
       </c>
       <c r="U17">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="V17">
-        <v>0.192</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="W17">
-        <v>0.61</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2609,48 +2616,48 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2836,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4378.8272610000004</v>
+        <v>4378.8272605139</v>
       </c>
       <c r="F24">
         <v>17000</v>
@@ -2925,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4378.8272610000004</v>
+        <v>4378.82726051389</v>
       </c>
       <c r="I25">
         <v>34000</v>
@@ -3011,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>38378.827259999998</v>
+        <v>38378.827260513899</v>
       </c>
       <c r="K26">
         <v>68000</v>
@@ -3094,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>106378.8273</v>
+        <v>106378.827260513</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3304,11 +3311,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="O11:Z11"/>
-    <mergeCell ref="O21:Z21"/>
-    <mergeCell ref="AA1:AL1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A21:B21"/>
@@ -3316,6 +3318,11 @@
     <mergeCell ref="AA21:AJ21"/>
     <mergeCell ref="C11:N11"/>
     <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O11:Z11"/>
+    <mergeCell ref="O21:Z21"/>
+    <mergeCell ref="AA1:AL1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
